--- a/Data/Product details.xlsx
+++ b/Data/Product details.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>lucrative_product</t>
+          <t>product_profitability</t>
         </is>
       </c>
     </row>
